--- a/biology/Botanique/Attalea_amygdalina/Attalea_amygdalina.xlsx
+++ b/biology/Botanique/Attalea_amygdalina/Attalea_amygdalina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Attalea amygdalina est une espèce de palmiers (famille Arecaceae) du genre Attalea.
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce palmier se retrouve en Colombie. Il pousse principalement dans les forêts montagneuses, le long de cours d'eau à des altitudes de 1000 à 1600 mètres, dans des endroits semi-ombragés.
 </t>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il peut atteindre une hauteur de 8 mètres et possède un tronc souterrain court, surmontée de 10-15 grandes feuilles pennées pouvant atteindre chacune 7,5 mètres[3],[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il peut atteindre une hauteur de 8 mètres et possède un tronc souterrain court, surmontée de 10-15 grandes feuilles pennées pouvant atteindre chacune 7,5 mètres,.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses fruits sont utilisés à des fins alimentaires. En effet la graine possède une grande quantité d'huile de très bonne qualité. Elle a été reconnue comme espèce commerciale potentielle, non exploitée par l'absence de machines adaptées pour casser l'endocarpe très dur sans abimer la graine.
 </t>
